--- a/Final Version/Data/Prep Config.xlsx
+++ b/Final Version/Data/Prep Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\Pre-built_Send-Customized-Emails-to-Multiple-Recipients1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\R2G In Progress\Pre-built_Send-Customized-Emails-to-Multiple-Recipients\Final Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39B139-5AA5-4E77-AF69-90ED1EE1B489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3481BA-201E-4C40-B506-8CFC844D285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Boolean flag to determine whether to display final success message at the end of the automation</t>
   </si>
   <si>
-    <t>Send Customized Emails to Multiple Recipients</t>
-  </si>
-  <si>
     <t>downloadTemplates;sendEmails</t>
   </si>
   <si>
@@ -183,10 +180,13 @@
     <t>Placeholders in your Excel file and email template do not match.</t>
   </si>
   <si>
-    <t>https://marketplace.uipath.com/listings/Send-Customized-Emails-to-Multiple-Recipients</t>
-  </si>
-  <si>
     <t>This automation allows you to send personalized emails to a group of people based on an input file and email template.</t>
+  </si>
+  <si>
+    <t>Send personalized emails to multiple recipients</t>
+  </si>
+  <si>
+    <t>https://marketplace.uipath.com/listings/Send-personalized-emails-to-multiple-recipients</t>
   </si>
 </sst>
 </file>
@@ -650,18 +650,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -733,10 +733,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>34</v>
@@ -851,7 +851,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -866,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
